--- a/Data/EC/NIT-9008298640.xlsx
+++ b/Data/EC/NIT-9008298640.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1B1C54-AC2F-49AF-8E0D-8376A0CBE918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BAAB78C-F464-48FB-AA43-B01F0A7B71D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2EBCCA98-C31C-4CBC-93B1-C8063EF7D9D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F7D63A8-0F54-4C18-8E8F-B096B50CA724}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,78 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73136692</t>
+  </si>
+  <si>
+    <t>SILFREDO MARTINEZ CABARCAS</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>1126118302</t>
   </si>
   <si>
@@ -72,78 +144,6 @@
   </si>
   <si>
     <t>2111</t>
-  </si>
-  <si>
-    <t>73136692</t>
-  </si>
-  <si>
-    <t>SILFREDO MARTINEZ CABARCAS</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5259FA9A-310B-ADF1-2788-4D43D2E03A9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F1A6CF-C8DE-F23B-D9B3-CE95747E308F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249AB0BD-FEEC-4A59-B551-2A489F77BB71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB87C5B-D728-4D58-8A84-0B19B7321BBE}">
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1086,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30666</v>
+        <v>46000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1100,16 +1100,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>24000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="18">
         <v>1500000</v>
@@ -1123,13 +1123,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>60000</v>
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>60000</v>
@@ -1169,13 +1169,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>60000</v>
@@ -1192,13 +1192,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>60000</v>
@@ -1215,13 +1215,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>60000</v>
@@ -1238,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
@@ -1261,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
@@ -1284,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
@@ -1307,13 +1307,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>60000</v>
@@ -1330,13 +1330,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1353,13 +1353,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>60000</v>
@@ -1376,13 +1376,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>60000</v>
@@ -1399,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>60000</v>
@@ -1422,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>60000</v>
@@ -1445,13 +1445,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>60000</v>
@@ -1468,13 +1468,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>60000</v>
@@ -1491,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>60000</v>
@@ -1514,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>60000</v>
@@ -1537,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>60000</v>
@@ -1560,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="G37" s="18">
         <v>1500000</v>
@@ -1583,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="24">
-        <v>46000</v>
+        <v>30666</v>
       </c>
       <c r="G38" s="24">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>

--- a/Data/EC/NIT-9008298640.xlsx
+++ b/Data/EC/NIT-9008298640.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BAAB78C-F464-48FB-AA43-B01F0A7B71D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEBA785-77A2-4C2F-8CD5-86E94E7E0B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F7D63A8-0F54-4C18-8E8F-B096B50CA724}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{54B18677-662A-4454-8046-A86364F10B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,85 +65,85 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1126118302</t>
+  </si>
+  <si>
+    <t>ADOL ANTONIO TORRES TRESPALACIOS</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>73136692</t>
   </si>
   <si>
     <t>SILFREDO MARTINEZ CABARCAS</t>
   </si>
   <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1126118302</t>
-  </si>
-  <si>
-    <t>ADOL ANTONIO TORRES TRESPALACIOS</t>
-  </si>
-  <si>
-    <t>2111</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -242,7 +242,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -255,9 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,23 +457,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,10 +501,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F1A6CF-C8DE-F23B-D9B3-CE95747E308F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2CBB58-25FA-A316-BE8E-4DAB19639910}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB87C5B-D728-4D58-8A84-0B19B7321BBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052C1E04-2C65-429B-BAD9-BD58C17F2579}">
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1086,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46000</v>
+        <v>30666</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1100,16 +1100,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="G17" s="18">
         <v>1500000</v>
@@ -1123,13 +1123,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>60000</v>
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>60000</v>
@@ -1169,13 +1169,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>60000</v>
@@ -1192,13 +1192,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>60000</v>
@@ -1215,13 +1215,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>60000</v>
@@ -1238,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
@@ -1261,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
@@ -1284,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
@@ -1307,13 +1307,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>60000</v>
@@ -1330,13 +1330,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1353,13 +1353,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>60000</v>
@@ -1376,13 +1376,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>60000</v>
@@ -1399,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>60000</v>
@@ -1422,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>60000</v>
@@ -1445,13 +1445,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>60000</v>
@@ -1468,13 +1468,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>60000</v>
@@ -1491,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>60000</v>
@@ -1514,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>60000</v>
@@ -1537,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>60000</v>
@@ -1560,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>24000</v>
+        <v>60000</v>
       </c>
       <c r="G37" s="18">
         <v>1500000</v>
@@ -1583,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="24">
-        <v>30666</v>
+        <v>46000</v>
       </c>
       <c r="G38" s="24">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
